--- a/ملفات الاكسل لمشروع التخرج/plans_subjects.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/plans_subjects.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D1E06-4A26-4C9B-8712-14048B32774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376125C6-5314-40BE-8B92-A6C8112491C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>plan_subject_id</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>4,5</t>
-  </si>
-  <si>
-    <t>7,8,9,10</t>
   </si>
 </sst>
 </file>
@@ -380,7 +377,8 @@
   <dimension ref="A1:E203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -624,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -641,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -658,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -675,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -692,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -709,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -726,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -743,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -760,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -777,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -794,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -811,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -828,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -845,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -862,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -879,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -896,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -913,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -930,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -947,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -964,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -981,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -998,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1015,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1032,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1049,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1066,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1083,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1100,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1117,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1134,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1151,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -1168,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -1185,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -1202,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -1219,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -1236,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -1253,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -1270,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -1287,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -1304,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -1321,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -1338,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -1355,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -1372,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -1389,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -1406,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -1422,8 +1420,8 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D71" t="s">
-        <v>6</v>
+      <c r="D71">
+        <v>1</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -1439,8 +1437,8 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
-      <c r="D72" t="s">
-        <v>6</v>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -1456,8 +1454,8 @@
       <c r="C73" t="s">
         <v>5</v>
       </c>
-      <c r="D73" t="s">
-        <v>6</v>
+      <c r="D73">
+        <v>1</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -1473,8 +1471,8 @@
       <c r="C74" t="s">
         <v>5</v>
       </c>
-      <c r="D74" t="s">
-        <v>6</v>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -1490,8 +1488,8 @@
       <c r="C75" t="s">
         <v>5</v>
       </c>
-      <c r="D75" t="s">
-        <v>6</v>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -1507,8 +1505,8 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
-      <c r="D76" t="s">
-        <v>6</v>
+      <c r="D76">
+        <v>1</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -1524,8 +1522,8 @@
       <c r="C77" t="s">
         <v>5</v>
       </c>
-      <c r="D77" t="s">
-        <v>6</v>
+      <c r="D77">
+        <v>1</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -1541,8 +1539,8 @@
       <c r="C78" t="s">
         <v>5</v>
       </c>
-      <c r="D78" t="s">
-        <v>6</v>
+      <c r="D78">
+        <v>2</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -1558,8 +1556,8 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
-      <c r="D79" t="s">
-        <v>6</v>
+      <c r="D79">
+        <v>2</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -1575,8 +1573,8 @@
       <c r="C80" t="s">
         <v>5</v>
       </c>
-      <c r="D80" t="s">
-        <v>6</v>
+      <c r="D80">
+        <v>2</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -1592,8 +1590,8 @@
       <c r="C81" t="s">
         <v>5</v>
       </c>
-      <c r="D81" t="s">
-        <v>6</v>
+      <c r="D81">
+        <v>2</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -1609,8 +1607,8 @@
       <c r="C82" t="s">
         <v>5</v>
       </c>
-      <c r="D82" t="s">
-        <v>6</v>
+      <c r="D82">
+        <v>2</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -1626,8 +1624,8 @@
       <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="D83" t="s">
-        <v>6</v>
+      <c r="D83">
+        <v>2</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -1643,8 +1641,8 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
-      <c r="D84" t="s">
-        <v>6</v>
+      <c r="D84">
+        <v>2</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -1660,8 +1658,8 @@
       <c r="C85" t="s">
         <v>5</v>
       </c>
-      <c r="D85" t="s">
-        <v>6</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -1677,8 +1675,8 @@
       <c r="C86" t="s">
         <v>5</v>
       </c>
-      <c r="D86" t="s">
-        <v>6</v>
+      <c r="D86">
+        <v>1</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -1694,8 +1692,8 @@
       <c r="C87" t="s">
         <v>5</v>
       </c>
-      <c r="D87" t="s">
-        <v>6</v>
+      <c r="D87">
+        <v>2</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -1711,8 +1709,8 @@
       <c r="C88" t="s">
         <v>5</v>
       </c>
-      <c r="D88" t="s">
-        <v>6</v>
+      <c r="D88">
+        <v>2</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -1728,8 +1726,8 @@
       <c r="C89" t="s">
         <v>5</v>
       </c>
-      <c r="D89" t="s">
-        <v>6</v>
+      <c r="D89">
+        <v>2</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -1745,8 +1743,8 @@
       <c r="C90" t="s">
         <v>5</v>
       </c>
-      <c r="D90" t="s">
-        <v>6</v>
+      <c r="D90">
+        <v>1</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -1762,8 +1760,8 @@
       <c r="C91" t="s">
         <v>5</v>
       </c>
-      <c r="D91" t="s">
-        <v>6</v>
+      <c r="D91">
+        <v>1</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -1779,8 +1777,8 @@
       <c r="C92" t="s">
         <v>5</v>
       </c>
-      <c r="D92" t="s">
-        <v>6</v>
+      <c r="D92">
+        <v>1</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2083,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>111</v>
@@ -2100,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>112</v>
@@ -2117,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>113</v>
@@ -2134,7 +2132,7 @@
         <v>2</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>114</v>
@@ -2151,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>115</v>
@@ -2168,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>116</v>
@@ -2185,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>117</v>
@@ -2202,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>118</v>
@@ -2219,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>119</v>
@@ -2236,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>120</v>
@@ -2253,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>122</v>
@@ -2270,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>123</v>
@@ -2287,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>124</v>
@@ -2304,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <v>125</v>
@@ -2321,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>126</v>
@@ -2338,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>127</v>
@@ -2355,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>128</v>
@@ -2372,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>129</v>
@@ -2389,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E132">
         <v>130</v>
@@ -2406,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E133">
         <v>131</v>
@@ -2423,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>132</v>
@@ -2692,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E153">
         <v>150</v>
@@ -2709,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E154">
         <v>151</v>
@@ -2726,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E155">
         <v>152</v>
@@ -2743,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <v>153</v>
@@ -2760,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>154</v>
@@ -2777,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
         <v>155</v>
@@ -2794,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <v>156</v>
@@ -2811,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>158</v>
@@ -2828,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E162">
         <v>159</v>
@@ -2845,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E163">
         <v>160</v>
@@ -2862,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E164">
         <v>161</v>
@@ -2879,7 +2877,7 @@
         <v>2</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E165">
         <v>162</v>
@@ -2896,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E166">
         <v>163</v>
@@ -3165,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E185">
         <v>181</v>
@@ -3182,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E186">
         <v>182</v>
@@ -3199,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E187">
         <v>183</v>
@@ -3216,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E188">
         <v>184</v>
@@ -3233,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E189">
         <v>185</v>
@@ -3250,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E190">
         <v>186</v>
@@ -3267,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <v>187</v>
@@ -3284,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E192">
         <v>188</v>
@@ -3301,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E193">
         <v>189</v>
@@ -3318,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195">
         <v>191</v>
@@ -3335,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E196">
         <v>192</v>
@@ -3352,7 +3350,7 @@
         <v>2</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>193</v>
@@ -3369,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E198">
         <v>194</v>
@@ -3386,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>195</v>
@@ -3403,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E200">
         <v>196</v>
@@ -3420,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E201">
         <v>197</v>
@@ -3437,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E202">
         <v>198</v>
@@ -3454,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E203">
         <v>199</v>
